--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Description</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>https://my.exotel.com/auth/login</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>AWS Link</t>
+  </si>
+  <si>
+    <t>http://ec2-3-109-100-2.ap-south-1.compute.amazonaws.com/callback_json/</t>
   </si>
 </sst>
 </file>
@@ -220,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -245,6 +254,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -347,7 +358,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Components"/>
@@ -642,18 +653,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="67" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -767,6 +778,17 @@
       </c>
       <c r="C11" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -784,11 +806,12 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -801,11 +824,11 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
